--- a/public/ユーザー一括登録用エクセル_Nerusoku.xlsx
+++ b/public/ユーザー一括登録用エクセル_Nerusoku.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Zens-Landing\new\nerusoku\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B154CB0-7247-4841-895D-FEC39D34F77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245C7BF5-2C02-49DB-9302-454007BF3CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ユーザー一覧" sheetId="2" r:id="rId1"/>
-    <sheet name="入力項目の説明" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>phone</t>
   </si>
@@ -47,47 +46,14 @@
     <t>number_of_employee</t>
   </si>
   <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>項目名</t>
-  </si>
-  <si>
-    <t>必須</t>
-  </si>
-  <si>
-    <t>セルの形式</t>
-  </si>
-  <si>
-    <t>説明</t>
-  </si>
-  <si>
-    <t>〇</t>
-  </si>
-  <si>
-    <t>文字列</t>
-  </si>
-  <si>
-    <t>30文字以内で入力してください</t>
-  </si>
-  <si>
-    <t>24文字以内で入力してください</t>
-  </si>
-  <si>
-    <t>全角カタカナで30文字以内で入力してください</t>
-  </si>
-  <si>
-    <t>数字のみ10-11桁で入力してください</t>
-  </si>
-  <si>
-    <t>gender" は [Male, Female] のいずれかでなければなりません</t>
+    <t>department_name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -127,9 +93,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Fira Code"/>
     </font>
   </fonts>
   <fills count="3">
@@ -141,12 +112,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE2EFD9"/>
-        <bgColor rgb="FFE2EFD9"/>
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -155,32 +126,47 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -189,19 +175,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -219,17 +196,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -452,483 +426,316 @@
   </sheetPr>
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" customWidth="1"/>
+    <col min="5" max="5" width="33.88671875" customWidth="1"/>
     <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
       <c r="D2" s="2"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="7"/>
+      <c r="F2" s="4"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="F13" s="11"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="F19" s="11"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="F22" s="9"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="F25" s="11"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="F26" s="11"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="F27" s="9"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="F28" s="9"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="F29" s="9"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="F30" s="9"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="F31" s="9"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="F32" s="11"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="F33" s="9"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="F34" s="9"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="F35" s="9"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="F36" s="9"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="F37" s="9"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A38" s="10"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="F38" s="11"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="F38" s="8"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="F39" s="9"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A40" s="12"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="F40" s="9"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="F41" s="9"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A42" s="10"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="9"/>
-      <c r="F42" s="11"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="6"/>
+      <c r="F42" s="8"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A43" s="10"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="F43" s="11"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="F43" s="8"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="F44" s="11"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="F44" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3E033B-9CCC-4488-8301-5CCBB00F4922}">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
-  <cols>
-    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="14.4">
-      <c r="A1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.4">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.4">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14.4">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.4">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14.4">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.4">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.4">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.4">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>